--- a/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
@@ -351,7 +351,7 @@
     <x:t>SMK00001</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507111732</x:t>
+    <x:t>Smoke Internal Catalog 001 202507141225</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>

--- a/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
@@ -351,7 +351,7 @@
     <x:t>SMK00001</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507141225</x:t>
+    <x:t>Smoke Internal Catalog 001 202507191017</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>

--- a/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
+++ b/PlaywrightTests/CMB/PROD/Catalog_scf_IntCatalog.xlsx
@@ -351,7 +351,7 @@
     <x:t>SMK00001</x:t>
   </x:si>
   <x:si>
-    <x:t>Smoke Internal Catalog 001 202507191017</x:t>
+    <x:t>Smoke Internal Catalog 001 202509271226</x:t>
   </x:si>
   <x:si>
     <x:t>Long Description for item SMK00001</x:t>
